--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_op_measure1.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_op_measure1.xlsx
@@ -34,19 +34,16 @@
     <t>readmitted</t>
   </si>
   <si>
-    <t>admission_source_id</t>
+    <t>gender</t>
   </si>
   <si>
-    <t>gender</t>
+    <t>admission_source_id</t>
   </si>
   <si>
     <t>age</t>
   </si>
   <si>
     <t>admission_type_id</t>
-  </si>
-  <si>
-    <t>change</t>
   </si>
   <si>
     <t>diabetesmed</t>
@@ -58,13 +55,16 @@
     <t>max_glu_serum</t>
   </si>
   <si>
+    <t>race</t>
+  </si>
+  <si>
     <t>diag_1</t>
   </si>
   <si>
-    <t>race</t>
+    <t>a1cresult</t>
   </si>
   <si>
-    <t>a1cresult</t>
+    <t>change</t>
   </si>
   <si>
     <t>discharge_disposition_id</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.305882000192115</v>
+        <v>1.305387322527277</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -515,7 +515,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1.296911310512105</v>
+        <v>1.297642135857446</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -549,7 +549,7 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1.239861382403086</v>
+        <v>1.239676027351657</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -566,7 +566,7 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1.195228609334394</v>
+        <v>1.190874392277296</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -583,7 +583,7 @@
         <v>28</v>
       </c>
       <c r="E7">
-        <v>1.186713400392678</v>
+        <v>1.186599652961242</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -594,13 +594,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1.172526741658976</v>
+        <v>1.178910729646047</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -611,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1.165282974034093</v>
+        <v>1.1679915583862</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -628,13 +628,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1.164810557688949</v>
+        <v>1.164968828217967</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -645,13 +645,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1.162852768392996</v>
+        <v>1.164591580538115</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -662,13 +662,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12">
-        <v>1.162157422557232</v>
+        <v>1.164061032893839</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -679,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>1.155977156279789</v>
+        <v>1.16213492052064</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1.140175425099138</v>
+        <v>1.147572689167478</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>1.13407102979274</v>
+        <v>1.138320977531085</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>1.11733934190511</v>
+        <v>1.132093842558186</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>1.095544398566526</v>
+        <v>1.095208523138157</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -815,13 +815,13 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>
       <c r="E21">
-        <v>0.9812681913417303</v>
+        <v>0.9799756036218709</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -832,13 +832,13 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
       </c>
       <c r="E22">
-        <v>0.9788311040609722</v>
+        <v>0.9799503503358007</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -855,7 +855,7 @@
         <v>28</v>
       </c>
       <c r="E23">
-        <v>0.9747381211755409</v>
+        <v>0.9761498243504725</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -872,7 +872,7 @@
         <v>28</v>
       </c>
       <c r="E24">
-        <v>0.9726153232637669</v>
+        <v>0.969266345794415</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -883,13 +883,13 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
       <c r="E25">
-        <v>0.9666030507452839</v>
+        <v>0.967047430803507</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -900,13 +900,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
       </c>
       <c r="E26">
-        <v>0.9664678377279501</v>
+        <v>0.9669371048312726</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -917,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27">
-        <v>0.9656603769320229</v>
+        <v>0.9658696779094281</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28">
-        <v>0.9653767974147585</v>
+        <v>0.9656395040164795</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -951,13 +951,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
       </c>
       <c r="E29">
-        <v>0.9643448502925789</v>
+        <v>0.9653650590977598</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -968,13 +968,13 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
       <c r="E30">
-        <v>0.9630116266300625</v>
+        <v>0.9646803868040293</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -985,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31">
-        <v>0.962923823681477</v>
+        <v>0.9644553151577782</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
       <c r="E32">
-        <v>0.9615606365510612</v>
+        <v>0.9599357514702983</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1025,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="E33">
-        <v>0.9374295159503303</v>
+        <v>0.9350627403092949</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1042,7 +1042,7 @@
         <v>27</v>
       </c>
       <c r="E34">
-        <v>0.8629840861666147</v>
+        <v>0.733948997178691</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1059,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="E35">
-        <v>0.733948997178691</v>
+        <v>0.7148116611777616</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1076,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="E36">
-        <v>0.7103269073832815</v>
+        <v>0.713964374066579</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1127,7 +1127,7 @@
         <v>27</v>
       </c>
       <c r="E39">
-        <v>0.6752424608630451</v>
+        <v>0.6037914697216047</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1135,16 +1135,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E40">
-        <v>0.6037914697216047</v>
+        <v>0.5918715032185276</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1152,16 +1152,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E41">
-        <v>0.582247763990447</v>
+        <v>0.5814691205097121</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1172,13 +1172,13 @@
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
         <v>27</v>
       </c>
       <c r="E42">
-        <v>0.5814691205097121</v>
+        <v>0.5608474453206846</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1195,7 +1195,7 @@
         <v>27</v>
       </c>
       <c r="E43">
-        <v>0.5437149461664322</v>
+        <v>0.5547001962252291</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1203,16 +1203,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
         <v>27</v>
       </c>
       <c r="E44">
-        <v>0.5411488753228245</v>
+        <v>0.5410017808004594</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1229,7 +1229,7 @@
         <v>26</v>
       </c>
       <c r="E45">
-        <v>0.5291298713816411</v>
+        <v>0.5309999607034288</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1246,7 +1246,7 @@
         <v>27</v>
       </c>
       <c r="E46">
-        <v>0.5185405180738231</v>
+        <v>0.5274560679273101</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,7 +1254,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
@@ -1263,7 +1263,7 @@
         <v>27</v>
       </c>
       <c r="E47">
-        <v>0.4865538961693258</v>
+        <v>0.5253494140581774</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1271,16 +1271,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
       </c>
       <c r="E48">
-        <v>0.4771187236136979</v>
+        <v>0.4880711008692505</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,16 +1288,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
       </c>
       <c r="E49">
-        <v>0.4737763824101348</v>
+        <v>0.4771187236136979</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1322,16 +1322,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E51">
-        <v>0.4622203399677483</v>
+        <v>0.4636431742084742</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1339,7 +1339,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
         <v>20</v>
@@ -1348,7 +1348,7 @@
         <v>27</v>
       </c>
       <c r="E52">
-        <v>0.4591645923272652</v>
+        <v>0.4616103466664636</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1356,16 +1356,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
         <v>27</v>
       </c>
       <c r="E53">
-        <v>0.4552679993083029</v>
+        <v>0.4610112019472001</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,16 +1373,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E54">
-        <v>0.4503027058342641</v>
+        <v>0.4555958379611995</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
         <v>27</v>
       </c>
       <c r="E55">
-        <v>0.4432445109256249</v>
+        <v>0.4480620839084176</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1410,13 +1410,13 @@
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
         <v>27</v>
       </c>
       <c r="E56">
-        <v>0.4364357804719848</v>
+        <v>0.4309066795526431</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1424,7 +1424,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
         <v>20</v>
@@ -1433,7 +1433,7 @@
         <v>27</v>
       </c>
       <c r="E57">
-        <v>0.4344254713942064</v>
+        <v>0.4190581774617468</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1441,16 +1441,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E58">
-        <v>0.4140629027475101</v>
+        <v>0.411826204157214</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1458,7 +1458,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
         <v>19</v>
@@ -1467,7 +1467,7 @@
         <v>27</v>
       </c>
       <c r="E59">
-        <v>0.4021173504786242</v>
+        <v>0.3917247450213849</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,16 +1475,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E60">
-        <v>0.3982958160289886</v>
+        <v>0.3904344047215152</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1492,16 +1492,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E61">
-        <v>0.3917247450213849</v>
+        <v>0.3874884623593259</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
         <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E62">
-        <v>0.3893452329424164</v>
+        <v>0.3811978693975923</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1526,16 +1526,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
         <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E63">
-        <v>0.3873846560745586</v>
+        <v>0.3809523809523809</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
         <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E64">
-        <v>0.3846775448495361</v>
+        <v>0.3776198192681826</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1563,13 +1563,13 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
         <v>27</v>
       </c>
       <c r="E65">
-        <v>0.3773789351316719</v>
+        <v>0.3759047057780561</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E66">
-        <v>0.3693787730312905</v>
+        <v>0.3746312115122337</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,16 +1594,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E67">
-        <v>0.3684551774471527</v>
+        <v>0.3694565225949919</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E68">
-        <v>0.368369010577718</v>
+        <v>0.3555055667528944</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1628,7 +1628,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
         <v>19</v>
@@ -1637,7 +1637,7 @@
         <v>27</v>
       </c>
       <c r="E69">
-        <v>0.3676073110469038</v>
+        <v>0.3544587784792833</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E70">
-        <v>0.3565769708394185</v>
+        <v>0.3518431772445462</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E71">
-        <v>0.3500775144871129</v>
+        <v>0.3498285100979472</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1679,16 +1679,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E72">
-        <v>0.3443265675633825</v>
+        <v>0.3463960033533822</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E73">
-        <v>0.3416852548797159</v>
+        <v>0.3419562053038533</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E74">
-        <v>0.3366501646120692</v>
+        <v>0.3393288662859712</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E75">
-        <v>0.3181963659269336</v>
+        <v>0.3292793774667773</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1747,7 +1747,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
         <v>20</v>
@@ -1756,7 +1756,7 @@
         <v>26</v>
       </c>
       <c r="E76">
-        <v>0.3163416932773465</v>
+        <v>0.3256360903027632</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E77">
-        <v>0.3162644577575215</v>
+        <v>0.320615972901733</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E78">
-        <v>0.3158211491567798</v>
+        <v>0.3162644577575215</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,16 +1798,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
         <v>28</v>
       </c>
       <c r="E79">
-        <v>0.3156777451239559</v>
+        <v>0.3141935436353018</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,16 +1815,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
         <v>28</v>
       </c>
       <c r="E80">
-        <v>0.3133376563283387</v>
+        <v>0.312691180493315</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1832,7 +1832,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>19</v>
@@ -1866,7 +1866,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>19</v>
@@ -1875,7 +1875,7 @@
         <v>27</v>
       </c>
       <c r="E83">
-        <v>0.3107277331329326</v>
+        <v>0.304724700110022</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E84">
-        <v>0.3026695644822499</v>
+        <v>0.304724700110022</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
         <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E85">
-        <v>0.3004918288367927</v>
+        <v>0.3029440676638999</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E86">
-        <v>0.2994758212466582</v>
+        <v>0.3027963510785553</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E87">
-        <v>0.2962315547683965</v>
+        <v>0.3020026286736034</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1954,13 +1954,13 @@
         <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E88">
-        <v>0.2956561979945413</v>
+        <v>0.2942453956397118</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E89">
-        <v>0.2956561979945413</v>
+        <v>0.2937112014220028</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,16 +1985,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E90">
-        <v>0.2956561979945413</v>
+        <v>0.2925504405551483</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,16 +2002,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E91">
-        <v>0.2956433182905472</v>
+        <v>0.2870935820845775</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D92" t="s">
         <v>26</v>
       </c>
       <c r="E92">
-        <v>0.2920894064303575</v>
+        <v>0.2849402334235695</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D93" t="s">
         <v>28</v>
       </c>
       <c r="E93">
-        <v>0.2904547235512214</v>
+        <v>0.2771838557743736</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2056,13 +2056,13 @@
         <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E94">
-        <v>0.2849689519056508</v>
+        <v>0.2759259793827312</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E95">
-        <v>0.2814825108895975</v>
+        <v>0.2744955340831633</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D96" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E96">
-        <v>0.2810907796076695</v>
+        <v>0.2723155948782323</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E97">
-        <v>0.2732832117763102</v>
+        <v>0.2720363855560753</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2121,16 +2121,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D98" t="s">
         <v>26</v>
       </c>
       <c r="E98">
-        <v>0.2724819030024467</v>
+        <v>0.2673876704948339</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,16 +2138,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D99" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E99">
-        <v>0.2723709784607384</v>
+        <v>0.2624871835558842</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E100">
-        <v>0.2619785467204253</v>
+        <v>0.2599080414173049</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
         <v>20</v>
       </c>
       <c r="D101" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E101">
-        <v>0.2600007958008924</v>
+        <v>0.2582391813117273</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D102" t="s">
         <v>29</v>
       </c>
       <c r="E102">
-        <v>0.2586897210774853</v>
+        <v>0.2571204346596971</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D103" t="s">
         <v>29</v>
       </c>
       <c r="E103">
-        <v>0.2585610438522057</v>
+        <v>0.2569101105684007</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D104" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E104">
-        <v>0.2582997064120332</v>
+        <v>0.2567762955065478</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D105" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E105">
-        <v>0.2578234080889328</v>
+        <v>0.2565448298560614</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,7 +2257,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>18</v>
@@ -2266,7 +2266,7 @@
         <v>29</v>
       </c>
       <c r="E106">
-        <v>0.2566192005265612</v>
+        <v>0.2562768141066161</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D107" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E107">
-        <v>0.2537791231950843</v>
+        <v>0.255024079267549</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D108" t="s">
         <v>29</v>
       </c>
       <c r="E108">
-        <v>0.2536892184249011</v>
+        <v>0.2549459973445294</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2308,16 +2308,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D109" t="s">
         <v>29</v>
       </c>
       <c r="E109">
-        <v>0.2528456266195369</v>
+        <v>0.2536369191851562</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>21</v>
       </c>
       <c r="D110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E110">
-        <v>0.2456108692505228</v>
+        <v>0.2492303312435097</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D111" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E111">
-        <v>0.245333594953716</v>
+        <v>0.2490287140737351</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D112" t="s">
         <v>28</v>
       </c>
       <c r="E112">
-        <v>0.2417888912345212</v>
+        <v>0.2454380126075125</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D113" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E113">
-        <v>0.2410084871046666</v>
+        <v>0.2436770598446205</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D114" t="s">
         <v>28</v>
       </c>
       <c r="E114">
-        <v>0.2400676103737658</v>
+        <v>0.2425828305232534</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2410,16 +2410,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E115">
-        <v>0.2397305339482801</v>
+        <v>0.2406049361714969</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D116" t="s">
         <v>27</v>
       </c>
       <c r="E116">
-        <v>0.2347532109140219</v>
+        <v>0.2348383518306049</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E117">
-        <v>0.2328920232201855</v>
+        <v>0.23323971139021</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2461,16 +2461,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D118" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E118">
-        <v>0.2326775575278652</v>
+        <v>0.2327521349006341</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2478,16 +2478,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D119" t="s">
         <v>29</v>
       </c>
       <c r="E119">
-        <v>0.2324085541535344</v>
+        <v>0.2322598588065947</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D120" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E120">
-        <v>0.2318221227550112</v>
+        <v>0.2316827428904938</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E121">
-        <v>0.2306244772119219</v>
+        <v>0.2313784314235035</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D122" t="s">
         <v>29</v>
       </c>
       <c r="E122">
-        <v>0.2304287203700801</v>
+        <v>0.2299175103904355</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E123">
-        <v>0.2298599575785068</v>
+        <v>0.2291433038314783</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
         <v>22</v>
       </c>
       <c r="D124" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E124">
-        <v>0.2289742701513127</v>
+        <v>0.2270533928745384</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C125" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D125" t="s">
         <v>29</v>
       </c>
       <c r="E125">
-        <v>0.2277111614547898</v>
+        <v>0.2267107281673577</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C126" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D126" t="s">
         <v>29</v>
       </c>
       <c r="E126">
-        <v>0.2271700235205826</v>
+        <v>0.2264446736171936</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D127" t="s">
         <v>29</v>
       </c>
       <c r="E127">
-        <v>0.2271380671360951</v>
+        <v>0.2259263291867556</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E128">
-        <v>0.2261604238644783</v>
+        <v>0.2236067977499791</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2648,16 +2648,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D129" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E129">
-        <v>0.2259357178239953</v>
+        <v>0.2229981509979811</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2665,16 +2665,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C130" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D130" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E130">
-        <v>0.2254116509711416</v>
+        <v>0.222959426570477</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2682,16 +2682,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E131">
-        <v>0.2244002805703513</v>
+        <v>0.2226859620059485</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,7 +2699,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
         <v>20</v>
@@ -2708,7 +2708,7 @@
         <v>28</v>
       </c>
       <c r="E132">
-        <v>0.2243049286305158</v>
+        <v>0.2214288253291568</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C133" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D133" t="s">
         <v>28</v>
       </c>
       <c r="E133">
-        <v>0.2232514183702949</v>
+        <v>0.2213182693833379</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2733,16 +2733,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D134" t="s">
         <v>29</v>
       </c>
       <c r="E134">
-        <v>0.2231145725817284</v>
+        <v>0.2211581265928586</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2750,16 +2750,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C135" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D135" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E135">
-        <v>0.2226687804593432</v>
+        <v>0.2203062020686273</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2767,16 +2767,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D136" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E136">
-        <v>0.2223958673677668</v>
+        <v>0.2192726424369289</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2784,16 +2784,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D137" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E137">
-        <v>0.2223396003568781</v>
+        <v>0.2175050670438942</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2801,16 +2801,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D138" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E138">
-        <v>0.2221394154301032</v>
+        <v>0.2171129078496637</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2818,16 +2818,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C139" t="s">
         <v>22</v>
       </c>
       <c r="D139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E139">
-        <v>0.2211434242741896</v>
+        <v>0.2165694739440874</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D140" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E140">
-        <v>0.2209127068632364</v>
+        <v>0.2151758567482163</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2852,16 +2852,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D141" t="s">
         <v>29</v>
       </c>
       <c r="E141">
-        <v>0.2199181932472636</v>
+        <v>0.2150505218653626</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2872,13 +2872,13 @@
         <v>11</v>
       </c>
       <c r="C142" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D142" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E142">
-        <v>0.219460350117053</v>
+        <v>0.214280851430457</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D143" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E143">
-        <v>0.2194295664546596</v>
+        <v>0.2140872848226603</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E144">
-        <v>0.2187951723197101</v>
+        <v>0.213051887228079</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D145" t="s">
         <v>28</v>
       </c>
       <c r="E145">
-        <v>0.2185553070594216</v>
+        <v>0.2117829448654281</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,16 +2937,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D146" t="s">
         <v>28</v>
       </c>
       <c r="E146">
-        <v>0.2185534274315279</v>
+        <v>0.2097388230914936</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D147" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E147">
-        <v>0.2162079631566407</v>
+        <v>0.2090873177254302</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D148" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E148">
-        <v>0.2153494635056293</v>
+        <v>0.209011110421223</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D149" t="s">
         <v>28</v>
       </c>
       <c r="E149">
-        <v>0.2140810814255204</v>
+        <v>0.208254477517699</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3005,16 +3005,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C150" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D150" t="s">
         <v>29</v>
       </c>
       <c r="E150">
-        <v>0.2136980246167765</v>
+        <v>0.2080119554001146</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C151" t="s">
         <v>19</v>
       </c>
       <c r="D151" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E151">
-        <v>0.2122886633325893</v>
+        <v>0.2073370504184707</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E152">
-        <v>0.212166725211125</v>
+        <v>0.2067454812505659</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,7 +3056,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
         <v>20</v>
@@ -3065,7 +3065,7 @@
         <v>28</v>
       </c>
       <c r="E153">
-        <v>0.211867369655194</v>
+        <v>0.2067268362461942</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D154" t="s">
         <v>29</v>
       </c>
       <c r="E154">
-        <v>0.2113448210360347</v>
+        <v>0.20640338076833</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D155" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E155">
-        <v>0.2106661962162108</v>
+        <v>0.2057276823672605</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3107,16 +3107,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C156" t="s">
         <v>20</v>
       </c>
       <c r="D156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E156">
-        <v>0.2091650066335188</v>
+        <v>0.2055390572642439</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E157">
-        <v>0.2087585830842194</v>
+        <v>0.2054153147564525</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D158" t="s">
         <v>29</v>
       </c>
       <c r="E158">
-        <v>0.2075828669364278</v>
+        <v>0.2053422451157805</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,16 +3158,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C159" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D159" t="s">
         <v>28</v>
       </c>
       <c r="E159">
-        <v>0.2068784392367356</v>
+        <v>0.205127640423898</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3178,13 +3178,13 @@
         <v>10</v>
       </c>
       <c r="C160" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D160" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E160">
-        <v>0.206645184347983</v>
+        <v>0.2046513259134977</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3192,16 +3192,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D161" t="s">
         <v>28</v>
       </c>
       <c r="E161">
-        <v>0.205828481050591</v>
+        <v>0.2040894573323305</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C162" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E162">
-        <v>0.205556331161946</v>
+        <v>0.203232176427713</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3226,16 +3226,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C163" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D163" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E163">
-        <v>0.204191821378521</v>
+        <v>0.2021475498679065</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,16 +3243,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C164" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D164" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E164">
-        <v>0.2040747031588935</v>
+        <v>0.2018634591238855</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D165" t="s">
         <v>28</v>
       </c>
       <c r="E165">
-        <v>0.2032398537053712</v>
+        <v>0.2011936285735838</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3277,16 +3277,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D166" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E166">
-        <v>0.201581313161133</v>
+        <v>0.2008440879427776</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C167" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D167" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E167">
-        <v>0.2002626652847756</v>
+        <v>0.200710533901762</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C168" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D168" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E168">
-        <v>0.199675453092598</v>
+        <v>0.2005276724585796</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C169" t="s">
         <v>25</v>
       </c>
       <c r="D169" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E169">
-        <v>0.1988778408001502</v>
+        <v>0.2002079870380372</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C170" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D170" t="s">
         <v>28</v>
       </c>
       <c r="E170">
-        <v>0.1981753764382264</v>
+        <v>0.1993771992981597</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C171" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D171" t="s">
         <v>28</v>
       </c>
       <c r="E171">
-        <v>0.1979090215758031</v>
+        <v>0.1975069179869209</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3382,13 +3382,13 @@
         <v>6</v>
       </c>
       <c r="C172" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D172" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E172">
-        <v>0.1949340125735102</v>
+        <v>0.196149817600457</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C173" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D173" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E173">
-        <v>0.1941336344488825</v>
+        <v>0.1951381619003462</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C174" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D174" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E174">
-        <v>0.1937766939407949</v>
+        <v>0.1937339166564618</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C175" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D175" t="s">
         <v>28</v>
       </c>
       <c r="E175">
-        <v>0.1934220613345888</v>
+        <v>0.1936940136381877</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C176" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D176" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E176">
-        <v>0.1926686588971131</v>
+        <v>0.1930060285298512</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3464,16 +3464,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C177" t="s">
         <v>24</v>
       </c>
       <c r="D177" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E177">
-        <v>0.1906531714838425</v>
+        <v>0.1928618705159114</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>25</v>
       </c>
       <c r="D178" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E178">
-        <v>0.1902986831632441</v>
+        <v>0.1909309643772831</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C179" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D179" t="s">
         <v>28</v>
       </c>
       <c r="E179">
-        <v>0.1893991970777256</v>
+        <v>0.1909270930617317</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C180" t="s">
         <v>22</v>
       </c>
       <c r="D180" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E180">
-        <v>0.1851464410665307</v>
+        <v>0.1909087418634809</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C181" t="s">
         <v>20</v>
       </c>
       <c r="D181" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E181">
-        <v>0.1837917932425374</v>
+        <v>0.1853659183047124</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D182" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E182">
-        <v>0.1814051169876977</v>
+        <v>0.1838112326312965</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D183" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E183">
-        <v>0.1810988914212268</v>
+        <v>0.1826434724651459</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D184" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E184">
-        <v>0.1809414665769649</v>
+        <v>0.1821060461265675</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C185" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D185" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E185">
-        <v>0.1803548530838917</v>
+        <v>0.1797934404767805</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C186" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D186" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E186">
-        <v>0.1794672115357905</v>
+        <v>0.179212502478263</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3637,13 +3637,13 @@
         <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D187" t="s">
         <v>29</v>
       </c>
       <c r="E187">
-        <v>0.1788963915468222</v>
+        <v>0.1789191685274976</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D188" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E188">
-        <v>0.1786994676999146</v>
+        <v>0.1788275029653726</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3668,16 +3668,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D189" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E189">
-        <v>0.1786535651853413</v>
+        <v>0.1780803076253603</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3688,13 +3688,13 @@
         <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D190" t="s">
         <v>29</v>
       </c>
       <c r="E190">
-        <v>0.1765219640147829</v>
+        <v>0.177320432830277</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D191" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E191">
-        <v>0.1763834207376395</v>
+        <v>0.1768027953790255</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C192" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D192" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E192">
-        <v>0.176291914677845</v>
+        <v>0.1762467443757254</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3739,13 +3739,13 @@
         <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D193" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E193">
-        <v>0.1759121186557634</v>
+        <v>0.1752539229017126</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>24</v>
       </c>
       <c r="D194" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E194">
-        <v>0.1758347929055435</v>
+        <v>0.1750829547212807</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C195" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D195" t="s">
         <v>26</v>
       </c>
       <c r="E195">
-        <v>0.1745281726384454</v>
+        <v>0.1743295042252245</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>18</v>
       </c>
       <c r="D196" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E196">
-        <v>0.171579741213684</v>
+        <v>0.1741083369681004</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C197" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D197" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E197">
-        <v>0.1708120672534041</v>
+        <v>0.1737257304742811</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3827,10 +3827,10 @@
         <v>24</v>
       </c>
       <c r="D198" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E198">
-        <v>0.1704485690626953</v>
+        <v>0.1730988375406958</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C199" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D199" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E199">
-        <v>0.1698415551216893</v>
+        <v>0.1728302914203744</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C200" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D200" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E200">
-        <v>0.1690741249508677</v>
+        <v>0.1713813591192657</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D201" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E201">
-        <v>0.168441608961874</v>
+        <v>0.170241922923642</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D202" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E202">
-        <v>0.1683579669623954</v>
+        <v>0.1667651725888527</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3906,16 +3906,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D203" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E203">
-        <v>0.1677834596994191</v>
+        <v>0.1662452262077733</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3929,10 +3929,10 @@
         <v>21</v>
       </c>
       <c r="D204" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E204">
-        <v>0.1676073266859493</v>
+        <v>0.1647332451644635</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C205" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D205" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E205">
-        <v>0.1651867585397159</v>
+        <v>0.1627791822775154</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,16 +3957,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C206" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D206" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E206">
-        <v>0.1651445647689539</v>
+        <v>0.1609202565592396</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3983,7 +3983,7 @@
         <v>26</v>
       </c>
       <c r="E207">
-        <v>0.165017417639106</v>
+        <v>0.1602934084733632</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D208" t="s">
         <v>28</v>
       </c>
       <c r="E208">
-        <v>0.1643773238162506</v>
+        <v>0.1596629933117257</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D209" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E209">
-        <v>0.1629262502209833</v>
+        <v>0.159358354749024</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C210" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D210" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E210">
-        <v>0.1628655854961142</v>
+        <v>0.1546765207355258</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C211" t="s">
         <v>19</v>
       </c>
       <c r="D211" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E211">
-        <v>0.1628655854961142</v>
+        <v>0.1545058465523859</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C212" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D212" t="s">
         <v>28</v>
       </c>
       <c r="E212">
-        <v>0.1620193905553163</v>
+        <v>0.1543183314646976</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4076,16 +4076,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D213" t="s">
         <v>26</v>
       </c>
       <c r="E213">
-        <v>0.1598458364167394</v>
+        <v>0.1536384478250739</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C214" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D214" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E214">
-        <v>0.158484331029283</v>
+        <v>0.1533962852251511</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D215" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E215">
-        <v>0.1581158234407118</v>
+        <v>0.1533087114807788</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C216" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D216" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E216">
-        <v>0.1559741112437109</v>
+        <v>0.1529895997699558</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C217" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D217" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E217">
-        <v>0.1540362828360427</v>
+        <v>0.1522773975253763</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C218" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D218" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E218">
-        <v>0.1536698430079237</v>
+        <v>0.1519658814102909</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4181,13 +4181,13 @@
         <v>15</v>
       </c>
       <c r="C219" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D219" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E219">
-        <v>0.1534120762281118</v>
+        <v>0.1516024480461362</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D220" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E220">
-        <v>0.1531414621716662</v>
+        <v>0.1465106370674149</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C221" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D221" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E221">
-        <v>0.1528057637460253</v>
+        <v>0.1455460960090304</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D222" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E222">
-        <v>0.1522025547166772</v>
+        <v>0.1454625865910188</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D223" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E223">
-        <v>0.1515882762512017</v>
+        <v>0.1454261983641588</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E224">
-        <v>0.1515604599517523</v>
+        <v>0.1452688362132872</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D225" t="s">
         <v>29</v>
       </c>
       <c r="E225">
-        <v>0.1507676428708866</v>
+        <v>0.1449108280716514</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C226" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D226" t="s">
         <v>29</v>
       </c>
       <c r="E226">
-        <v>0.1504346728372448</v>
+        <v>0.1441248383508734</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D227" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E227">
-        <v>0.148649796208215</v>
+        <v>0.1440672080213618</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4331,7 +4331,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C228" t="s">
         <v>18</v>
@@ -4340,7 +4340,7 @@
         <v>29</v>
       </c>
       <c r="E228">
-        <v>0.1480132855148778</v>
+        <v>0.1439559226142408</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C229" t="s">
         <v>19</v>
       </c>
       <c r="D229" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E229">
-        <v>0.1473380508627786</v>
+        <v>0.1435569775010435</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4368,13 +4368,13 @@
         <v>9</v>
       </c>
       <c r="C230" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D230" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E230">
-        <v>0.1466967025753883</v>
+        <v>0.1433098591367325</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4382,16 +4382,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D231" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E231">
-        <v>0.1458746184653683</v>
+        <v>0.1423974368989849</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D232" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E232">
-        <v>0.1447569502476225</v>
+        <v>0.1419182770124842</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C233" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D233" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E233">
-        <v>0.1442812627087405</v>
+        <v>0.1415904493907481</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C234" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D234" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E234">
-        <v>0.1441237016797192</v>
+        <v>0.1411012726044013</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4450,16 +4450,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C235" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D235" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E235">
-        <v>0.1432149186751157</v>
+        <v>0.1408155468381271</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C236" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D236" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E236">
-        <v>0.1430141309468421</v>
+        <v>0.1405885044516683</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4484,16 +4484,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C237" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D237" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E237">
-        <v>0.1426164542469029</v>
+        <v>0.1399156023125653</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4501,16 +4501,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>21</v>
       </c>
       <c r="D238" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E238">
-        <v>0.1412216139136086</v>
+        <v>0.1398212538313549</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C239" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D239" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E239">
-        <v>0.140806516323665</v>
+        <v>0.1392592970900169</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4538,13 +4538,13 @@
         <v>14</v>
       </c>
       <c r="C240" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D240" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E240">
-        <v>0.1397900402633413</v>
+        <v>0.1391185391430263</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C241" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D241" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E241">
-        <v>0.1390627849124167</v>
+        <v>0.1388526753382721</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C242" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D242" t="s">
         <v>29</v>
       </c>
       <c r="E242">
-        <v>0.1389808015818075</v>
+        <v>0.1387655479456721</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C243" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D243" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E243">
-        <v>0.1386526281623759</v>
+        <v>0.1384248479446926</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D244" t="s">
         <v>28</v>
       </c>
       <c r="E244">
-        <v>0.1383674600482462</v>
+        <v>0.1381839317654975</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4620,16 +4620,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C245" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D245" t="s">
         <v>29</v>
       </c>
       <c r="E245">
-        <v>0.1379849186194922</v>
+        <v>0.1380890333720479</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C246" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D246" t="s">
         <v>29</v>
       </c>
       <c r="E246">
-        <v>0.137350017595891</v>
+        <v>0.1380835699184477</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4654,16 +4654,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C247" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D247" t="s">
         <v>29</v>
       </c>
       <c r="E247">
-        <v>0.136400888121373</v>
+        <v>0.1370063477868332</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4671,16 +4671,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C248" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D248" t="s">
         <v>29</v>
       </c>
       <c r="E248">
-        <v>0.1362287779555212</v>
+        <v>0.1369618661821596</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C249" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D249" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E249">
-        <v>0.1361775019739807</v>
+        <v>0.1368756823369183</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C250" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D250" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E250">
-        <v>0.1361295506441994</v>
+        <v>0.1363848476472403</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C251" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D251" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E251">
-        <v>0.1354153170452519</v>
+        <v>0.1354949302280231</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C252" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D252" t="s">
         <v>29</v>
       </c>
       <c r="E252">
-        <v>0.1353556420344018</v>
+        <v>0.13541748454243</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D253" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E253">
-        <v>0.1350690357219587</v>
+        <v>0.1340257713732014</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4773,16 +4773,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C254" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D254" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E254">
-        <v>0.1346804037685543</v>
+        <v>0.1339830292490494</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C255" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D255" t="s">
         <v>29</v>
       </c>
       <c r="E255">
-        <v>0.13465458610515</v>
+        <v>0.1325770768890784</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C256" t="s">
         <v>25</v>
       </c>
       <c r="D256" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E256">
-        <v>0.1343583096437314</v>
+        <v>0.132521110925679</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C257" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D257" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E257">
-        <v>0.1340168701388791</v>
+        <v>0.1325201918894743</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,16 +4841,16 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C258" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D258" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E258">
-        <v>0.1336023488553403</v>
+        <v>0.132482238916735</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4861,13 +4861,13 @@
         <v>17</v>
       </c>
       <c r="C259" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D259" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E259">
-        <v>0.133502440498363</v>
+        <v>0.132471950807211</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4875,16 +4875,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C260" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D260" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E260">
-        <v>0.1334304036043153</v>
+        <v>0.1310051819020351</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C261" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D261" t="s">
         <v>28</v>
       </c>
       <c r="E261">
-        <v>0.1331082850015589</v>
+        <v>0.1299572018722679</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C262" t="s">
         <v>23</v>
       </c>
       <c r="D262" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E262">
-        <v>0.1323600436601917</v>
+        <v>0.1296323284644161</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C263" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D263" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E263">
-        <v>0.1322537611169177</v>
+        <v>0.1278551844903253</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C264" t="s">
         <v>23</v>
       </c>
       <c r="D264" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E264">
-        <v>0.1321318854030667</v>
+        <v>0.1276545753537373</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4960,16 +4960,16 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C265" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D265" t="s">
         <v>26</v>
       </c>
       <c r="E265">
-        <v>0.1320900648011008</v>
+        <v>0.1273663841535275</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C266" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D266" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E266">
-        <v>0.1315698361993925</v>
+        <v>0.127033149776656</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C267" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D267" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E267">
-        <v>0.1311609031840933</v>
+        <v>0.1265080914908037</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5011,16 +5011,16 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C268" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D268" t="s">
         <v>28</v>
       </c>
       <c r="E268">
-        <v>0.1308609469231058</v>
+        <v>0.1264420446219686</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5031,13 +5031,13 @@
         <v>15</v>
       </c>
       <c r="C269" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D269" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E269">
-        <v>0.1300245900375262</v>
+        <v>0.1258001039281963</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C270" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D270" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E270">
-        <v>0.12970244707089</v>
+        <v>0.125667141012036</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C271" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D271" t="s">
         <v>29</v>
       </c>
       <c r="E271">
-        <v>0.1293154833352105</v>
+        <v>0.1248529821357164</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C272" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D272" t="s">
         <v>28</v>
       </c>
       <c r="E272">
-        <v>0.1288528269244389</v>
+        <v>0.1247190748620563</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C273" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D273" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E273">
-        <v>0.128783018363449</v>
+        <v>0.1245253776997721</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C274" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D274" t="s">
         <v>29</v>
       </c>
       <c r="E274">
-        <v>0.1287748358805932</v>
+        <v>0.1237950799944185</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C275" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D275" t="s">
         <v>29</v>
       </c>
       <c r="E275">
-        <v>0.1278061338903146</v>
+        <v>0.1232943821098362</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C276" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D276" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E276">
-        <v>0.1277467803032961</v>
+        <v>0.1232083524980954</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C277" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D277" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E277">
-        <v>0.1270525509851722</v>
+        <v>0.1214363964561977</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C278" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D278" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E278">
-        <v>0.1269802668470756</v>
+        <v>0.1213905878278497</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5198,16 +5198,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C279" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D279" t="s">
         <v>26</v>
       </c>
       <c r="E279">
-        <v>0.1264724619386925</v>
+        <v>0.1213416567605257</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C280" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D280" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E280">
-        <v>0.1254373671412836</v>
+        <v>0.1211058230910078</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C281" t="s">
         <v>25</v>
       </c>
       <c r="D281" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E281">
-        <v>0.1253312251959342</v>
+        <v>0.1210101346014383</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C282" t="s">
         <v>22</v>
       </c>
       <c r="D282" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E282">
-        <v>0.1251596697068331</v>
+        <v>0.1205214714939735</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C283" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D283" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E283">
-        <v>0.1248261819094885</v>
+        <v>0.1200677468388388</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5283,16 +5283,16 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C284" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D284" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E284">
-        <v>0.1243296585607227</v>
+        <v>0.1182490292352518</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5300,16 +5300,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C285" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D285" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E285">
-        <v>0.1242359477433964</v>
+        <v>0.11811251230699</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C286" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D286" t="s">
         <v>28</v>
       </c>
       <c r="E286">
-        <v>0.1238743035564311</v>
+        <v>0.1180927610252182</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,16 +5334,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C287" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D287" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E287">
-        <v>0.1231014318741403</v>
+        <v>0.1170847321337206</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5351,16 +5351,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C288" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D288" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E288">
-        <v>0.1227524047020612</v>
+        <v>0.1170619603186072</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C289" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D289" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E289">
-        <v>0.1216338341180373</v>
+        <v>0.1164027788984336</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5385,16 +5385,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C290" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D290" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E290">
-        <v>0.121151718057289</v>
+        <v>0.1154676889325183</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5402,16 +5402,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C291" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D291" t="s">
         <v>29</v>
       </c>
       <c r="E291">
-        <v>0.1202010479930139</v>
+        <v>0.115077510788494</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,16 +5419,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C292" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D292" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E292">
-        <v>0.1194508697131753</v>
+        <v>0.1145929479329115</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,16 +5436,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C293" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D293" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E293">
-        <v>0.1194471645964718</v>
+        <v>0.1140300917088312</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,7 +5453,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C294" t="s">
         <v>21</v>
@@ -5462,7 +5462,7 @@
         <v>28</v>
       </c>
       <c r="E294">
-        <v>0.1192486764788426</v>
+        <v>0.1139851966888727</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5470,16 +5470,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C295" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D295" t="s">
         <v>29</v>
       </c>
       <c r="E295">
-        <v>0.1188011328640768</v>
+        <v>0.1139431252691828</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5487,7 +5487,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C296" t="s">
         <v>19</v>
@@ -5496,7 +5496,7 @@
         <v>29</v>
       </c>
       <c r="E296">
-        <v>0.1184365964744848</v>
+        <v>0.1139296670688237</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,16 +5504,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C297" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D297" t="s">
         <v>26</v>
       </c>
       <c r="E297">
-        <v>0.1179189092894426</v>
+        <v>0.113271657427313</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C298" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D298" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E298">
-        <v>0.1159326397100676</v>
+        <v>0.1128354628136628</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C299" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D299" t="s">
         <v>28</v>
       </c>
       <c r="E299">
-        <v>0.1153011269036739</v>
+        <v>0.1126238587179386</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,16 +5555,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C300" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D300" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E300">
-        <v>0.1139617834003376</v>
+        <v>0.1115602983793996</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5575,13 +5575,13 @@
         <v>16</v>
       </c>
       <c r="C301" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D301" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E301">
-        <v>0.112519477402511</v>
+        <v>0.1113916165282912</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,16 +5589,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C302" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D302" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E302">
-        <v>0.1108813962332298</v>
+        <v>0.1108782721187183</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C303" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D303" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E303">
-        <v>0.1102965323052696</v>
+        <v>0.1108487496435398</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5623,16 +5623,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C304" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D304" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E304">
-        <v>0.1097016891315228</v>
+        <v>0.1097294205769715</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5640,16 +5640,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C305" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D305" t="s">
         <v>29</v>
       </c>
       <c r="E305">
-        <v>0.108878796319354</v>
+        <v>0.109339393578445</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5660,13 +5660,13 @@
         <v>15</v>
       </c>
       <c r="C306" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D306" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E306">
-        <v>0.1085443465753245</v>
+        <v>0.1090220144779271</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5674,16 +5674,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C307" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D307" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E307">
-        <v>0.1085341865273263</v>
+        <v>0.108345782375754</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5691,16 +5691,16 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C308" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D308" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E308">
-        <v>0.1081497369074427</v>
+        <v>0.1080090070286301</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5708,16 +5708,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C309" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D309" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E309">
-        <v>0.1077114267164557</v>
+        <v>0.1077473541184483</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,16 +5725,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C310" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D310" t="s">
         <v>26</v>
       </c>
       <c r="E310">
-        <v>0.1072082581610848</v>
+        <v>0.1072941814717964</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C311" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D311" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E311">
-        <v>0.1067069162510943</v>
+        <v>0.1065305846219116</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,16 +5759,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C312" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D312" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E312">
-        <v>0.106007471346003</v>
+        <v>0.1058427557071046</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5776,16 +5776,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C313" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D313" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E313">
-        <v>0.1050285356046598</v>
+        <v>0.1055219208602673</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,16 +5793,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C314" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D314" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E314">
-        <v>0.1032917840372519</v>
+        <v>0.1046676842570753</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C315" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D315" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E315">
-        <v>0.1028352090741487</v>
+        <v>0.1041311164289283</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5827,16 +5827,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C316" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D316" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E316">
-        <v>0.1027324850715543</v>
+        <v>0.1040574769338227</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,16 +5844,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C317" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D317" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E317">
-        <v>0.101185377965231</v>
+        <v>0.10384094829317</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C318" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D318" t="s">
         <v>29</v>
       </c>
       <c r="E318">
-        <v>0.1009263597217809</v>
+        <v>0.1031795444092278</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C319" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D319" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E319">
-        <v>0.09975168546310989</v>
+        <v>0.1031473322904166</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5895,16 +5895,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C320" t="s">
         <v>22</v>
       </c>
       <c r="D320" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E320">
-        <v>0.09972786452389824</v>
+        <v>0.1023602105685105</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C321" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D321" t="s">
         <v>26</v>
       </c>
       <c r="E321">
-        <v>0.0992096238183839</v>
+        <v>0.101592270772617</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,16 +5929,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C322" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D322" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E322">
-        <v>0.09860229777613928</v>
+        <v>0.09911714088679852</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5946,16 +5946,16 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C323" t="s">
         <v>20</v>
       </c>
       <c r="D323" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E323">
-        <v>0.0985620420600722</v>
+        <v>0.09873060069696146</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5963,16 +5963,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C324" t="s">
         <v>24</v>
       </c>
       <c r="D324" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E324">
-        <v>0.09833701628014967</v>
+        <v>0.0984651288115586</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,16 +5980,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C325" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D325" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E325">
-        <v>0.09511306671052608</v>
+        <v>0.09774451093565943</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5997,16 +5997,16 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C326" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D326" t="s">
         <v>26</v>
       </c>
       <c r="E326">
-        <v>0.09451765397130199</v>
+        <v>0.09755355498882685</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,16 +6014,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C327" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D327" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E327">
-        <v>0.09385772391331333</v>
+        <v>0.09745467374012293</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6034,13 +6034,13 @@
         <v>17</v>
       </c>
       <c r="C328" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D328" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E328">
-        <v>0.09382574547443524</v>
+        <v>0.09701728176032216</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C329" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D329" t="s">
         <v>26</v>
       </c>
       <c r="E329">
-        <v>0.09372128818546951</v>
+        <v>0.0964430357374462</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6065,7 +6065,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C330" t="s">
         <v>22</v>
@@ -6074,7 +6074,7 @@
         <v>26</v>
       </c>
       <c r="E330">
-        <v>0.09260204357032223</v>
+        <v>0.09642746226876051</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C331" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D331" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E331">
-        <v>0.09212928249286394</v>
+        <v>0.09420958800251164</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6105,10 +6105,10 @@
         <v>23</v>
       </c>
       <c r="D332" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E332">
-        <v>0.09189898127005235</v>
+        <v>0.0907675529747408</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,16 +6116,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C333" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D333" t="s">
         <v>26</v>
       </c>
       <c r="E333">
-        <v>0.09093634808024582</v>
+        <v>0.09024224122130875</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6133,16 +6133,16 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C334" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D334" t="s">
         <v>28</v>
       </c>
       <c r="E334">
-        <v>0.09006947485127834</v>
+        <v>0.0900316174892392</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6150,16 +6150,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C335" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D335" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E335">
-        <v>0.08794606071451631</v>
+        <v>0.0896116677740624</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C336" t="s">
         <v>21</v>
       </c>
       <c r="D336" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E336">
-        <v>0.08740931514900017</v>
+        <v>0.08922562774217634</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C337" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D337" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E337">
-        <v>0.08720862512384739</v>
+        <v>0.08720804873929867</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,16 +6201,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C338" t="s">
         <v>24</v>
       </c>
       <c r="D338" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E338">
-        <v>0.08700028217220333</v>
+        <v>0.08490120251046128</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6218,16 +6218,16 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C339" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D339" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E339">
-        <v>0.08594630800860421</v>
+        <v>0.08475793795260132</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,16 +6235,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C340" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D340" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E340">
-        <v>0.08507119970969569</v>
+        <v>0.08475793795260132</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,16 +6252,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C341" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D341" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E341">
-        <v>0.0846403926638435</v>
+        <v>0.08405146098987744</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,16 +6269,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C342" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D342" t="s">
         <v>26</v>
       </c>
       <c r="E342">
-        <v>0.08283270211662659</v>
+        <v>0.08296318545858226</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6289,13 +6289,13 @@
         <v>13</v>
       </c>
       <c r="C343" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D343" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E343">
-        <v>0.08108244472303991</v>
+        <v>0.08248537285738039</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C344" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D344" t="s">
         <v>26</v>
       </c>
       <c r="E344">
-        <v>0.08082021961844775</v>
+        <v>0.08231938202011406</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,7 +6320,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C345" t="s">
         <v>21</v>
@@ -6329,7 +6329,7 @@
         <v>26</v>
       </c>
       <c r="E345">
-        <v>0.08012688691836446</v>
+        <v>0.08151345271642485</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6340,13 +6340,13 @@
         <v>13</v>
       </c>
       <c r="C346" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D346" t="s">
         <v>28</v>
       </c>
       <c r="E346">
-        <v>0.07829664499422269</v>
+        <v>0.08117933618154825</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C347" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D347" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E347">
-        <v>0.07644536720521203</v>
+        <v>0.0801701984453134</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6371,16 +6371,16 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C348" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D348" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E348">
-        <v>0.07548675806040864</v>
+        <v>0.08009185806910206</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6391,13 +6391,13 @@
         <v>7</v>
       </c>
       <c r="C349" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D349" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E349">
-        <v>0.07518056881339726</v>
+        <v>0.07958391218549923</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6405,16 +6405,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C350" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D350" t="s">
         <v>26</v>
       </c>
       <c r="E350">
-        <v>0.07480906217903298</v>
+        <v>0.07916079164194266</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6422,16 +6422,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C351" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D351" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E351">
-        <v>0.07431022633282651</v>
+        <v>0.07897495353050242</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,16 +6439,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C352" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D352" t="s">
         <v>29</v>
       </c>
       <c r="E352">
-        <v>0.07319085345313078</v>
+        <v>0.07838901640047774</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C353" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D353" t="s">
         <v>29</v>
       </c>
       <c r="E353">
-        <v>0.07309779443930815</v>
+        <v>0.07663590144409353</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6476,13 +6476,13 @@
         <v>12</v>
       </c>
       <c r="C354" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D354" t="s">
         <v>26</v>
       </c>
       <c r="E354">
-        <v>0.07275992764244242</v>
+        <v>0.07489679036709167</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,16 +6490,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C355" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D355" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E355">
-        <v>0.071600806687378</v>
+        <v>0.07467588057837894</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C356" t="s">
         <v>22</v>
       </c>
       <c r="D356" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E356">
-        <v>0.07147108289786426</v>
+        <v>0.07450245367519744</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C357" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D357" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E357">
-        <v>0.07037745934735808</v>
+        <v>0.07445840943745773</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,16 +6541,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C358" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D358" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E358">
-        <v>0.06970078053203173</v>
+        <v>0.07433726149056996</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6558,16 +6558,16 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C359" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D359" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E359">
-        <v>0.0695386662020685</v>
+        <v>0.07360186534227563</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C360" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D360" t="s">
         <v>26</v>
       </c>
       <c r="E360">
-        <v>0.06644560933495819</v>
+        <v>0.0719595531519748</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6592,16 +6592,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C361" t="s">
         <v>25</v>
       </c>
       <c r="D361" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E361">
-        <v>0.06615697257180739</v>
+        <v>0.07016963245229586</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6609,16 +6609,16 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C362" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D362" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E362">
-        <v>0.06579227451755179</v>
+        <v>0.06923881167613347</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,7 +6626,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C363" t="s">
         <v>23</v>
@@ -6635,7 +6635,7 @@
         <v>26</v>
       </c>
       <c r="E363">
-        <v>0.06438257431894064</v>
+        <v>0.06868137208249823</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6643,16 +6643,16 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C364" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D364" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E364">
-        <v>0.06407644688200841</v>
+        <v>0.0682094903033416</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6660,16 +6660,16 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C365" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D365" t="s">
         <v>26</v>
       </c>
       <c r="E365">
-        <v>0.06115543898565254</v>
+        <v>0.06323325549790206</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C366" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D366" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E366">
-        <v>0.06019374241977458</v>
+        <v>0.06045114610182294</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,16 +6694,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C367" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D367" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E367">
-        <v>0.0577533582446303</v>
+        <v>0.05807632773543738</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6720,7 +6720,7 @@
         <v>26</v>
       </c>
       <c r="E368">
-        <v>0.05748768873796976</v>
+        <v>0.05730026908376756</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6731,13 +6731,13 @@
         <v>17</v>
       </c>
       <c r="C369" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D369" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E369">
-        <v>0.04805622968907727</v>
+        <v>0.05266289222517381</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,16 +6745,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C370" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D370" t="s">
         <v>26</v>
       </c>
       <c r="E370">
-        <v>0.04659828393688888</v>
+        <v>0.05216100779268028</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,16 +6762,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C371" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D371" t="s">
         <v>26</v>
       </c>
       <c r="E371">
-        <v>0.03808631646276833</v>
+        <v>0.0512891903877201</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,16 +6779,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C372" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D372" t="s">
         <v>26</v>
       </c>
       <c r="E372">
-        <v>0.03779642332913446</v>
+        <v>0.05042987965017189</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,16 +6796,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C373" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D373" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E373">
-        <v>0.03507087972414482</v>
+        <v>0.04982847402510424</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,16 +6813,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C374" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D374" t="s">
         <v>26</v>
       </c>
       <c r="E374">
-        <v>0.03411422978123946</v>
+        <v>0.04806523257154623</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C375" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D375" t="s">
         <v>26</v>
       </c>
       <c r="E375">
-        <v>0.02941363304975168</v>
+        <v>0.04459810762617811</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,16 +6847,16 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C376" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D376" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E376">
-        <v>0.02938212641246459</v>
+        <v>0.03506378913978847</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C377" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D377" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E377">
-        <v>0.02716279435414523</v>
+        <v>0.0332705948775853</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C378" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D378" t="s">
         <v>26</v>
       </c>
       <c r="E378">
-        <v>0.01171623750774841</v>
+        <v>0.01992636550906246</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,7 +6898,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C379" t="s">
         <v>23</v>
@@ -6907,7 +6907,7 @@
         <v>26</v>
       </c>
       <c r="E379">
-        <v>0.01026956131109392</v>
+        <v>0.01758538979610787</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,16 +6915,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C380" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D380" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E380">
-        <v>0</v>
+        <v>0.007861019516889544</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6935,7 +6935,7 @@
         <v>9</v>
       </c>
       <c r="C381" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D381" t="s">
         <v>27</v>
@@ -6949,10 +6949,10 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C382" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D382" t="s">
         <v>27</v>
@@ -6966,7 +6966,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C383" t="s">
         <v>23</v>
@@ -6983,10 +6983,10 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C384" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D384" t="s">
         <v>27</v>
@@ -7000,7 +7000,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C385" t="s">
         <v>25</v>
@@ -7017,10 +7017,10 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C386" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D386" t="s">
         <v>27</v>
@@ -7034,10 +7034,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C387" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D387" t="s">
         <v>27</v>
@@ -7051,7 +7051,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C388" t="s">
         <v>21</v>
@@ -7068,10 +7068,10 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C389" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D389" t="s">
         <v>27</v>
@@ -7085,7 +7085,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C390" t="s">
         <v>25</v>
@@ -7102,7 +7102,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C391" t="s">
         <v>23</v>
@@ -7119,7 +7119,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C392" t="s">
         <v>25</v>
@@ -7136,10 +7136,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C393" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D393" t="s">
         <v>27</v>
@@ -7153,10 +7153,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C394" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D394" t="s">
         <v>27</v>
@@ -7170,7 +7170,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C395" t="s">
         <v>23</v>
@@ -7190,7 +7190,7 @@
         <v>6</v>
       </c>
       <c r="C396" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D396" t="s">
         <v>27</v>
@@ -7204,7 +7204,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C397" t="s">
         <v>21</v>
@@ -7221,10 +7221,10 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C398" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D398" t="s">
         <v>27</v>
@@ -7238,10 +7238,10 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C399" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D399" t="s">
         <v>27</v>
@@ -7255,7 +7255,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C400" t="s">
         <v>25</v>
@@ -7272,10 +7272,10 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C401" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D401" t="s">
         <v>27</v>
@@ -7289,10 +7289,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C402" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D402" t="s">
         <v>27</v>
@@ -7306,10 +7306,10 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C403" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D403" t="s">
         <v>27</v>
@@ -7323,10 +7323,10 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C404" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D404" t="s">
         <v>27</v>
@@ -7340,10 +7340,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C405" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D405" t="s">
         <v>27</v>
@@ -7357,7 +7357,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C406" t="s">
         <v>21</v>
@@ -7374,10 +7374,10 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C407" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D407" t="s">
         <v>27</v>
@@ -7394,7 +7394,7 @@
         <v>11</v>
       </c>
       <c r="C408" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D408" t="s">
         <v>27</v>
@@ -7408,7 +7408,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C409" t="s">
         <v>25</v>
@@ -7425,10 +7425,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C410" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D410" t="s">
         <v>27</v>
@@ -7442,7 +7442,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C411" t="s">
         <v>21</v>
@@ -7459,10 +7459,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C412" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D412" t="s">
         <v>27</v>
@@ -7476,10 +7476,10 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C413" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D413" t="s">
         <v>27</v>
@@ -7496,7 +7496,7 @@
         <v>10</v>
       </c>
       <c r="C414" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D414" t="s">
         <v>27</v>
@@ -7510,10 +7510,10 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C415" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D415" t="s">
         <v>27</v>
@@ -7527,10 +7527,10 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C416" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D416" t="s">
         <v>27</v>
@@ -7544,7 +7544,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C417" t="s">
         <v>23</v>
